--- a/regions/4/mretsveloba/mrecveloba.xlsx
+++ b/regions/4/mretsveloba/mrecveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28410" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,17 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -533,7 +533,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="7">
         <v>2006</v>
@@ -580,8 +580,11 @@
       <c r="P2" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -630,8 +633,11 @@
       <c r="P3" s="9">
         <v>763.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9">
+        <v>986.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -680,8 +686,11 @@
       <c r="P4" s="9">
         <v>748.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="9">
+        <v>959.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -730,8 +739,11 @@
       <c r="P5" s="11">
         <v>10959</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="11">
+        <v>12049</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -780,8 +792,11 @@
       <c r="P6" s="11">
         <v>10461</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>11419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -830,8 +845,11 @@
       <c r="P7" s="9">
         <v>833.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9">
+        <v>894.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -880,8 +898,11 @@
       <c r="P8" s="9">
         <v>475.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="9">
+        <v>668.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -930,8 +951,11 @@
       <c r="P9" s="9">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="9">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -980,8 +1004,11 @@
       <c r="P10" s="9">
         <v>273.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9">
+        <v>290.89999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1057,11 @@
       <c r="P11" s="9">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="9">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1080,8 +1110,11 @@
       <c r="P12" s="9">
         <v>513.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="9">
+        <v>717.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1094,7 +1127,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
